--- a/Resources/ResourcesRoot/作业指导书.xlsx
+++ b/Resources/ResourcesRoot/作业指导书.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB4A12C7-9E3E-44C5-A625-AEEBDD3EF7A6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>作业指导书</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,11 +32,15 @@
     <t>创建日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>作业指导书名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,27 +381,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Resources/ResourcesRoot/作业指导书.xlsx
+++ b/Resources/ResourcesRoot/作业指导书.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>作业指导书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,13 +30,29 @@
   </si>
   <si>
     <t>作业指导书名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业指导书文件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,31 +394,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.625" style="2"/>
+    <col min="3" max="4" width="8.625" style="2"/>
+    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
